--- a/Aging Workbook.xlsx
+++ b/Aging Workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\Documents\R code\p-c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{465F1F8A-22F8-416C-A61A-6F540BBE61CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055D043E-B003-4FB5-8DA3-E341D6EC4F6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{5ED376C2-5DC4-4B6A-967E-F06E576E658C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5ED376C2-5DC4-4B6A-967E-F06E576E658C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -298,82 +298,82 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7153962808686745E-2</c:v>
+                  <c:v>9.6759286639673037E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7473375786389354E-2</c:v>
+                  <c:v>0.11146597138863337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10668893818195692</c:v>
+                  <c:v>0.1203427333612502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14819875854126807</c:v>
+                  <c:v>0.15477387692277869</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15638511635543628</c:v>
+                  <c:v>0.16090809607081383</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1783901146083661</c:v>
+                  <c:v>0.18626331604615998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17857701197871381</c:v>
+                  <c:v>0.18868405653763401</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17572118296187425</c:v>
+                  <c:v>0.18697393359122638</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15853355729829274</c:v>
+                  <c:v>0.17140645257299206</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.14903791108459455</c:v>
+                  <c:v>0.1554717541483856</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13138291446640249</c:v>
+                  <c:v>0.14637710306239624</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.10895741650556437</c:v>
+                  <c:v>0.12229217151047063</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.10107983178912026</c:v>
+                  <c:v>0.10939436276667887</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.7685223859381267E-2</c:v>
+                  <c:v>9.9295297098641308E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.1626831832158303E-2</c:v>
+                  <c:v>8.3062209164537035E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.0536892187145079E-2</c:v>
+                  <c:v>7.3936035883602771E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.8606448680310754E-2</c:v>
+                  <c:v>4.6988511547597298E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.8726550098229657E-2</c:v>
+                  <c:v>3.2704379250654898E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.7116397887868163E-2</c:v>
+                  <c:v>2.0871659880724727E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0053597688922668E-2</c:v>
+                  <c:v>1.0422084839000985E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.568793380242347E-3</c:v>
+                  <c:v>6.9010286313862627E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.8111643544576767E-9</c:v>
+                  <c:v>1.5112327760331241E-10</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.2697607056877307E-9</c:v>
+                  <c:v>9.4142601498680896E-11</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.6070408875622389E-9</c:v>
+                  <c:v>1.5102042326164124E-10</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.1618236113588734E-16</c:v>
+                  <c:v>1.3977216847031437E-18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1476,221 +1476,221 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5405367D-8831-43EB-9718-884021207337}">
   <dimension ref="C4:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="5" width="8.83984375" style="4"/>
-    <col min="6" max="6" width="8.83984375" style="3"/>
-    <col min="7" max="7" width="18.62890625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83984375" style="2"/>
-    <col min="10" max="10" width="19.62890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="4"/>
+    <col min="6" max="6" width="8.88671875" style="3"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>20</v>
       </c>
       <c r="D4" s="4">
-        <v>1.8186999999999998E-2</v>
+        <v>5.3377668000000001E-3</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
+        <v>1.1161674E-2</v>
       </c>
       <c r="F4" s="3">
-        <v>167.54127299999999</v>
+        <v>2582.1596100000002</v>
       </c>
       <c r="H4" s="5">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>21</v>
       </c>
       <c r="D5" s="4">
-        <v>8.4979630000000007E-3</v>
+        <v>2.8092396E-3</v>
       </c>
       <c r="E5" s="4">
-        <v>9.3886439999999998E-3</v>
+        <v>1.3409829E-2</v>
       </c>
       <c r="F5" s="3">
-        <v>2486.3205990000001</v>
+        <v>16401.714341999999</v>
       </c>
       <c r="G5" s="1">
-        <f>(D5+E5)/E5</f>
-        <v>1.9051320936228915</v>
+        <f t="shared" ref="G5:G29" si="0">(D5+E5)/E5</f>
+        <v>1.2094910829959129</v>
       </c>
       <c r="H5" s="5">
-        <f>H4*G5</f>
-        <v>5.7153962808686745E-2</v>
+        <f t="shared" ref="H5:H29" si="1">H4*G5</f>
+        <v>9.6759286639673037E-2</v>
       </c>
       <c r="I5">
         <v>0.2</v>
       </c>
       <c r="J5" s="1">
         <f>G6*G7*G8*G9*G10</f>
-        <v>3.1212203991085787</v>
+        <v>1.9250174584254185</v>
       </c>
       <c r="K5" s="1">
-        <f>I5*J5</f>
-        <v>0.62424407982171581</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="K5:K10" si="2">I5*J5</f>
+        <v>0.38500349168508374</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>22</v>
       </c>
       <c r="D6" s="4">
-        <v>5.3200469999999996E-3</v>
+        <v>2.1320456000000002E-3</v>
       </c>
       <c r="E6" s="4">
-        <v>1.4964102E-2</v>
+        <v>1.4027309E-2</v>
       </c>
       <c r="F6" s="3">
-        <v>7024.9713179999999</v>
+        <v>23744.912747999999</v>
       </c>
       <c r="G6" s="1">
-        <f>(D6+E6)/E6</f>
-        <v>1.3555206319764461</v>
+        <f t="shared" si="0"/>
+        <v>1.1519924883667996</v>
       </c>
       <c r="H6" s="5">
-        <f>H5*G6</f>
-        <v>7.7473375786389354E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.11146597138863337</v>
       </c>
       <c r="I6">
         <v>0.2</v>
       </c>
       <c r="J6" s="1">
         <f>G7*G8*G9*G10</f>
-        <v>2.3025989612254119</v>
+        <v>1.6710329953232164</v>
       </c>
       <c r="K6" s="1">
-        <f>I6*J6</f>
-        <v>0.46051979224508238</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="2"/>
+        <v>0.33420659906464328</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>23</v>
       </c>
       <c r="D7" s="4">
-        <v>7.3346219999999998E-3</v>
+        <v>1.3987848E-3</v>
       </c>
       <c r="E7" s="4">
-        <v>1.9449837000000001E-2</v>
+        <v>1.7564614999999999E-2</v>
       </c>
       <c r="F7" s="3">
-        <v>14872.476945</v>
+        <v>29511.303371000002</v>
       </c>
       <c r="G7" s="1">
-        <f>(D7+E7)/E7</f>
-        <v>1.3771045484854192</v>
+        <f t="shared" si="0"/>
+        <v>1.0796365192177568</v>
       </c>
       <c r="H7" s="5">
-        <f>H6*G7</f>
-        <v>0.10668893818195692</v>
+        <f t="shared" si="1"/>
+        <v>0.1203427333612502</v>
       </c>
       <c r="I7">
         <v>0.2</v>
       </c>
       <c r="J7" s="1">
         <f>G8*G9*G10</f>
-        <v>1.6720582062980469</v>
+        <v>1.5477736864013749</v>
       </c>
       <c r="K7" s="1">
-        <f>I7*J7</f>
-        <v>0.33441164125960943</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="2"/>
+        <v>0.30955473728027499</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>24</v>
       </c>
       <c r="D8" s="4">
-        <v>7.5301470000000001E-3</v>
+        <v>4.6676329000000004E-3</v>
       </c>
       <c r="E8" s="4">
-        <v>1.9354056000000001E-2</v>
+        <v>1.6314175E-2</v>
       </c>
       <c r="F8" s="3">
-        <v>22421.884312999999</v>
+        <v>33595.714208999998</v>
       </c>
       <c r="G8" s="1">
-        <f>(D8+E8)/E8</f>
-        <v>1.3890733291254298</v>
+        <f t="shared" si="0"/>
+        <v>1.2861090370797175</v>
       </c>
       <c r="H8" s="5">
-        <f>H7*G8</f>
-        <v>0.14819875854126807</v>
+        <f t="shared" si="1"/>
+        <v>0.15477387692277869</v>
       </c>
       <c r="I8">
         <v>0.2</v>
       </c>
       <c r="J8" s="1">
         <f>G9*G10</f>
-        <v>1.203722057892211</v>
+        <v>1.2034544830785128</v>
       </c>
       <c r="K8" s="1">
-        <f>I8*J8</f>
-        <v>0.2407444115784422</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="2"/>
+        <v>0.24069089661570256</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>25</v>
       </c>
       <c r="D9" s="4">
-        <v>1.6808389999999999E-3</v>
+        <v>9.7268840000000001E-4</v>
       </c>
       <c r="E9" s="4">
-        <v>3.0428459000000001E-2</v>
+        <v>2.4542122E-2</v>
       </c>
       <c r="F9" s="3">
-        <v>26037.987504000001</v>
+        <v>35312.012801999997</v>
       </c>
       <c r="G9" s="1">
-        <f>(D9+E9)/E9</f>
-        <v>1.0552390444747795</v>
+        <f t="shared" si="0"/>
+        <v>1.0396334269709848</v>
       </c>
       <c r="H9" s="5">
-        <f>H8*G9</f>
-        <v>0.15638511635543628</v>
+        <f t="shared" si="1"/>
+        <v>0.16090809607081383</v>
       </c>
       <c r="I9">
         <v>0.3</v>
       </c>
       <c r="J9" s="1">
         <f>G10</f>
-        <v>1.1407103103272069</v>
+        <v>1.1575757876358663</v>
       </c>
       <c r="K9" s="1">
-        <f>I9*J9</f>
-        <v>0.34221309309816206</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="2"/>
+        <v>0.34727273629075989</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>26</v>
       </c>
       <c r="D10" s="4">
-        <v>4.6547949999999998E-3</v>
+        <v>4.4001225E-3</v>
       </c>
       <c r="E10" s="4">
-        <v>3.3080696E-2</v>
+        <v>2.7923849000000001E-2</v>
       </c>
       <c r="F10" s="3">
-        <v>26079.735127</v>
+        <v>33605.462035999997</v>
       </c>
       <c r="G10" s="1">
-        <f>(D10+E10)/E10</f>
-        <v>1.1407103103272069</v>
+        <f t="shared" si="0"/>
+        <v>1.1575757876358663</v>
       </c>
       <c r="H10" s="5">
-        <f>H9*G10</f>
-        <v>0.1783901146083661</v>
+        <f t="shared" si="1"/>
+        <v>0.18626331604615998</v>
       </c>
       <c r="I10">
         <v>0.4</v>
@@ -1699,373 +1699,373 @@
         <v>1</v>
       </c>
       <c r="K10" s="1">
-        <f>I10*J10</f>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>27</v>
       </c>
       <c r="D11" s="4">
-        <v>3.7305940000000001E-5</v>
+        <v>4.041677E-4</v>
       </c>
       <c r="E11" s="4">
-        <v>3.5607835999999997E-2</v>
+        <v>3.1098589999999999E-2</v>
       </c>
       <c r="F11" s="3">
-        <v>24520.980754</v>
+        <v>31177.835553000001</v>
       </c>
       <c r="G11" s="1">
-        <f>(D11+E11)/E11</f>
-        <v>1.0010476890536117</v>
+        <f t="shared" si="0"/>
+        <v>1.0129963352036218</v>
       </c>
       <c r="H11" s="5">
-        <f>H10*G11</f>
-        <v>0.17857701197871381</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>0.18868405653763401</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>28</v>
       </c>
       <c r="D12" s="4">
-        <v>-5.6021819999999998E-4</v>
+        <v>-2.8649900000000001E-4</v>
       </c>
       <c r="E12" s="4">
-        <v>3.5030841E-2</v>
+        <v>3.1610472000000001E-2</v>
       </c>
       <c r="F12" s="3">
-        <v>24563.934161000001</v>
+        <v>30579.849646999999</v>
       </c>
       <c r="G12" s="1">
-        <f>(D12+E12)/E12</f>
-        <v>0.9840078575333091</v>
+        <f t="shared" si="0"/>
+        <v>0.99093657949808522</v>
       </c>
       <c r="H12" s="5">
-        <f>H11*G12</f>
-        <v>0.17572118296187425</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>0.18697393359122638</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>29</v>
       </c>
       <c r="D13" s="4">
-        <v>-3.6867559999999998E-3</v>
+        <v>-2.8453088999999998E-3</v>
       </c>
       <c r="E13" s="4">
-        <v>3.7692298999999999E-2</v>
+        <v>3.4173711000000002E-2</v>
       </c>
       <c r="F13" s="3">
-        <v>21670.698157999999</v>
+        <v>26635.88378</v>
       </c>
       <c r="G13" s="1">
-        <f>(D13+E13)/E13</f>
-        <v>0.90218808356582336</v>
+        <f t="shared" si="0"/>
+        <v>0.91673983255725422</v>
       </c>
       <c r="H13" s="5">
-        <f>H12*G13</f>
-        <v>0.15853355729829274</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>0.17140645257299206</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>30</v>
       </c>
       <c r="D14" s="4">
-        <v>-2.0949079999999999E-3</v>
+        <v>-2.9903096999999998E-3</v>
       </c>
       <c r="E14" s="4">
-        <v>3.4975315E-2</v>
+        <v>3.2166180000000003E-2</v>
       </c>
       <c r="F14" s="3">
-        <v>21240.825903000001</v>
+        <v>25561.979154000001</v>
       </c>
       <c r="G14" s="1">
-        <f>(D14+E14)/E14</f>
-        <v>0.94010324138610335</v>
+        <f t="shared" si="0"/>
+        <v>0.90703559763702124</v>
       </c>
       <c r="H14" s="5">
-        <f>H13*G14</f>
-        <v>0.14903791108459455</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>0.1554717541483856</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>31</v>
       </c>
       <c r="D15" s="4">
-        <v>-3.853563E-3</v>
+        <v>-1.6643456E-3</v>
       </c>
       <c r="E15" s="4">
-        <v>3.2530562999999998E-2</v>
+        <v>2.8451748999999998E-2</v>
       </c>
       <c r="F15" s="3">
-        <v>18845.720714999999</v>
+        <v>22239.369290999999</v>
       </c>
       <c r="G15" s="1">
-        <f>(D15+E15)/E15</f>
-        <v>0.88154023033662221</v>
+        <f t="shared" si="0"/>
+        <v>0.94150287210814354</v>
       </c>
       <c r="H15" s="5">
-        <f>H14*G15</f>
-        <v>0.13138291446640249</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>0.14637710306239624</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>32</v>
       </c>
       <c r="D16" s="4">
-        <v>-4.8989029999999996E-3</v>
+        <v>-4.4919078999999997E-3</v>
       </c>
       <c r="E16" s="4">
-        <v>2.8700908000000001E-2</v>
+        <v>2.7299744000000001E-2</v>
       </c>
       <c r="F16" s="3">
-        <v>16559.799857000002</v>
+        <v>19208.099616</v>
       </c>
       <c r="G16" s="1">
-        <f>(D16+E16)/E16</f>
-        <v>0.82931191584600739</v>
+        <f t="shared" si="0"/>
+        <v>0.83545970614229936</v>
       </c>
       <c r="H16" s="5">
-        <f>H15*G16</f>
-        <v>0.10895741650556437</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>0.12229217151047063</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>33</v>
       </c>
       <c r="D17" s="4">
-        <v>-1.9594399999999998E-3</v>
+        <v>-2.7264856000000001E-3</v>
       </c>
       <c r="E17" s="4">
-        <v>2.7101647E-2</v>
+        <v>2.5851511000000001E-2</v>
       </c>
       <c r="F17" s="3">
-        <v>13511.789627</v>
+        <v>15665.335564999999</v>
       </c>
       <c r="G17" s="1">
-        <f>(D17+E17)/E17</f>
-        <v>0.92770033496488236</v>
+        <f t="shared" si="0"/>
+        <v>0.89453283407689388</v>
       </c>
       <c r="H17" s="5">
-        <f>H16*G17</f>
-        <v>0.10107983178912026</v>
+        <f t="shared" si="1"/>
+        <v>0.10939436276667887</v>
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>34</v>
       </c>
       <c r="D18" s="4">
-        <v>-3.8006170000000001E-3</v>
+        <v>-2.3810761999999998E-3</v>
       </c>
       <c r="E18" s="4">
-        <v>2.8680625000000001E-2</v>
+        <v>2.5792120000000002E-2</v>
       </c>
       <c r="F18" s="3">
-        <v>11592.50661</v>
+        <v>13527.107921000001</v>
       </c>
       <c r="G18" s="1">
-        <f>(D18+E18)/E18</f>
-        <v>0.86748486129573543</v>
+        <f t="shared" si="0"/>
+        <v>0.90768202846450785</v>
       </c>
       <c r="H18" s="5">
-        <f>H17*G18</f>
-        <v>8.7685223859381267E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.9295297098641308E-2</v>
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>35</v>
       </c>
       <c r="D19" s="4">
-        <v>-5.6573350000000003E-3</v>
+        <v>-4.6404150999999998E-3</v>
       </c>
       <c r="E19" s="4">
-        <v>3.0891305000000001E-2</v>
+        <v>2.8384704E-2</v>
       </c>
       <c r="F19" s="3">
-        <v>9382.2860240000009</v>
+        <v>10475.576838999999</v>
       </c>
       <c r="G19" s="1">
-        <f>(D19+E19)/E19</f>
-        <v>0.81686319176221267</v>
+        <f t="shared" si="0"/>
+        <v>0.83651705157820211</v>
       </c>
       <c r="H19" s="5">
-        <f>H18*G19</f>
-        <v>7.1626831832158303E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.3062209164537035E-2</v>
       </c>
       <c r="I19">
         <v>0.4</v>
       </c>
       <c r="J19" s="1">
         <f>G20*G21*G22*G23*G24</f>
-        <v>0.14036077586791859</v>
+        <v>0.12547324401589163</v>
       </c>
       <c r="K19" s="1">
-        <f>I19*J19</f>
-        <v>5.6144310347167437E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="K19:K24" si="3">I19*J19</f>
+        <v>5.0189297606356653E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>36</v>
       </c>
       <c r="D20" s="4">
-        <v>-4.4656440000000004E-3</v>
+        <v>-2.9391134999999999E-3</v>
       </c>
       <c r="E20" s="4">
-        <v>2.8842350999999999E-2</v>
+        <v>2.6750452000000001E-2</v>
       </c>
       <c r="F20" s="3">
-        <v>6996.4951279999996</v>
+        <v>7826.3979250000002</v>
       </c>
       <c r="G20" s="1">
-        <f>(D20+E20)/E20</f>
-        <v>0.84517059653008175</v>
+        <f t="shared" si="0"/>
+        <v>0.89012845465190649</v>
       </c>
       <c r="H20" s="5">
-        <f>H19*G20</f>
-        <v>6.0536892187145079E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.3936035883602771E-2</v>
       </c>
       <c r="I20">
         <v>0.35</v>
       </c>
       <c r="J20" s="1">
         <f>G21*G22*G23*G24</f>
-        <v>0.16607389850543958</v>
+        <v>0.14096082802448909</v>
       </c>
       <c r="K20" s="1">
-        <f>I20*J20</f>
-        <v>5.8125864476903849E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>4.9336289808571181E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>37</v>
       </c>
       <c r="D21" s="4">
-        <v>-1.029096E-2</v>
+        <v>-1.01810563E-2</v>
       </c>
       <c r="E21" s="4">
-        <v>2.8407211000000002E-2</v>
+        <v>2.7933807000000001E-2</v>
       </c>
       <c r="F21" s="3">
-        <v>5071.8564980000001</v>
+        <v>5607.3172649999997</v>
       </c>
       <c r="G21" s="1">
-        <f>(D21+E21)/E21</f>
-        <v>0.63773423586004263</v>
+        <f t="shared" si="0"/>
+        <v>0.63552922449847238</v>
       </c>
       <c r="H21" s="5">
-        <f>H20*G21</f>
-        <v>3.8606448680310754E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.6988511547597298E-2</v>
       </c>
       <c r="I21">
         <v>0.5</v>
       </c>
       <c r="J21" s="1">
         <f>G22*G23*G24</f>
-        <v>0.26041239307385433</v>
+        <v>0.22180070182567649</v>
       </c>
       <c r="K21" s="1">
-        <f>I21*J21</f>
-        <v>0.13020619653692717</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>0.11090035091283824</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>38</v>
       </c>
       <c r="D22" s="4">
-        <v>-5.8788030000000002E-3</v>
+        <v>-7.0574469999999997E-3</v>
       </c>
       <c r="E22" s="4">
-        <v>2.2971866000000001E-2</v>
+        <v>2.3215896E-2</v>
       </c>
       <c r="F22" s="3">
-        <v>3432.0761269999998</v>
+        <v>3907.115761</v>
       </c>
       <c r="G22" s="1">
-        <f>(D22+E22)/E22</f>
-        <v>0.74408683212761206</v>
+        <f t="shared" si="0"/>
+        <v>0.69600798521840379</v>
       </c>
       <c r="H22" s="5">
-        <f>H21*G22</f>
-        <v>2.8726550098229657E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.2704379250654898E-2</v>
       </c>
       <c r="I22">
         <v>0.33</v>
       </c>
       <c r="J22" s="1">
         <f>G23*G24</f>
-        <v>0.34997581173321074</v>
+        <v>0.31867551312083947</v>
       </c>
       <c r="K22" s="1">
-        <f>I22*J22</f>
-        <v>0.11549201787195955</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>0.10516291932987704</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>39</v>
       </c>
       <c r="D23" s="4">
-        <v>-1.0625509999999999E-2</v>
+        <v>-9.0792653999999997E-3</v>
       </c>
       <c r="E23" s="4">
-        <v>2.6290287999999998E-2</v>
+        <v>2.5094124999999998E-2</v>
       </c>
       <c r="F23" s="3">
-        <v>2052.513207</v>
+        <v>2299.9647439999999</v>
       </c>
       <c r="G23" s="1">
-        <f>(D23+E23)/E23</f>
-        <v>0.5958389653243813</v>
+        <f t="shared" si="0"/>
+        <v>0.63819159265365899</v>
       </c>
       <c r="H23" s="5">
-        <f>H22*G23</f>
-        <v>1.7116397887868163E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.0871659880724727E-2</v>
       </c>
       <c r="I23">
         <v>0.33</v>
       </c>
       <c r="J23" s="1">
         <f>G24</f>
-        <v>0.587366439760582</v>
+        <v>0.49934144665829516</v>
       </c>
       <c r="K23" s="1">
-        <f>I23*J23</f>
-        <v>0.19383092512099206</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>0.1647826773972374</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>40</v>
       </c>
       <c r="D24" s="4">
-        <v>-5.3228119999999997E-3</v>
+        <v>-7.3137363E-3</v>
       </c>
       <c r="E24" s="4">
-        <v>1.2899610000000001E-2</v>
+        <v>1.4608232000000001E-2</v>
       </c>
       <c r="F24" s="3">
-        <v>833.22753</v>
+        <v>973.97320100000002</v>
       </c>
       <c r="G24" s="1">
-        <f>(D24+E24)/E24</f>
-        <v>0.587366439760582</v>
+        <f t="shared" si="0"/>
+        <v>0.49934144665829516</v>
       </c>
       <c r="H24" s="5">
-        <f>H23*G24</f>
-        <v>1.0053597688922668E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.0422084839000985E-2</v>
       </c>
       <c r="I24">
         <v>0.2</v>
@@ -2074,133 +2074,134 @@
         <v>1</v>
       </c>
       <c r="K24" s="1">
-        <f>I24*J24</f>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>41</v>
       </c>
       <c r="D25" s="4">
-        <v>-9.5437060000000008E-3</v>
+        <v>-5.9329303999999996E-3</v>
       </c>
       <c r="E25" s="4">
-        <v>2.1394151E-2</v>
+        <v>1.7561067E-2</v>
       </c>
       <c r="F25" s="3">
-        <v>455.30372899999998</v>
+        <v>531.80548899999997</v>
       </c>
       <c r="G25" s="1">
-        <f>(D25+E25)/E25</f>
-        <v>0.55391050572654177</v>
+        <f t="shared" si="0"/>
+        <v>0.66215433264960499</v>
       </c>
       <c r="H25" s="5">
-        <f>H24*G25</f>
-        <v>5.568793380242347E-3</v>
+        <f t="shared" si="1"/>
+        <v>6.9010286313862627E-3</v>
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>42</v>
       </c>
       <c r="D26" s="4">
-        <v>-1.229881E-2</v>
+        <v>-9.1329788000000002E-3</v>
       </c>
       <c r="E26" s="4">
-        <v>1.2298814E-2</v>
+        <v>9.1329789999999994E-3</v>
       </c>
       <c r="F26" s="3">
-        <v>178.48240999999999</v>
+        <v>231.10075599999999</v>
       </c>
       <c r="G26" s="1">
-        <f>(D26+E26)/E26</f>
-        <v>3.2523461202269583E-7</v>
+        <f t="shared" si="0"/>
+        <v>2.1898659703568731E-8</v>
       </c>
       <c r="H26" s="5">
-        <f>H25*G26</f>
-        <v>1.8111643544576767E-9</v>
+        <f t="shared" si="1"/>
+        <v>1.5112327760331241E-10</v>
       </c>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>43</v>
       </c>
       <c r="D27" s="4">
-        <v>-1.2909240000000001E-2</v>
+        <v>-1.55182514E-2</v>
       </c>
       <c r="E27" s="4">
-        <v>4.3185440999999998E-2</v>
+        <v>4.1157269000000003E-2</v>
       </c>
       <c r="F27" s="3">
-        <v>168.917484</v>
+        <v>255.83421100000001</v>
       </c>
       <c r="G27" s="1">
-        <f>(D27+E27)/E27</f>
-        <v>0.7010742578731568</v>
+        <f t="shared" si="0"/>
+        <v>0.62295235381142511</v>
       </c>
       <c r="H27" s="5">
-        <f>H26*G27</f>
-        <v>1.2697607056877307E-9</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>9.4142601498680896E-11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>44</v>
       </c>
       <c r="D28" s="4">
-        <v>8.5094669999999997E-3</v>
+        <v>1.9607130800000001E-2</v>
       </c>
       <c r="E28" s="4">
-        <v>3.2035640999999997E-2</v>
+        <v>3.2453181999999997E-2</v>
       </c>
       <c r="F28" s="3">
-        <v>110.222066</v>
+        <v>115.44828800000001</v>
       </c>
       <c r="G28" s="1">
-        <f>(D28+E28)/E28</f>
-        <v>1.2656249956103578</v>
+        <f t="shared" si="0"/>
+        <v>1.6041666669234469</v>
       </c>
       <c r="H28" s="5">
-        <f>H27*G28</f>
-        <v>1.6070408875622389E-9</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>1.5102042326164124E-10</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>45</v>
       </c>
       <c r="D29" s="4">
-        <v>-4.1496169999999999E-2</v>
+        <v>-5.40237815E-2</v>
       </c>
       <c r="E29" s="4">
-        <v>4.1496167E-2</v>
+        <v>5.4023781999999999E-2</v>
       </c>
       <c r="F29" s="3">
-        <v>89.104107999999997</v>
+        <v>95.412977999999995</v>
       </c>
       <c r="G29" s="1">
-        <f>(D29+E29)/E29</f>
-        <v>-7.2295833936202651E-8</v>
+        <f t="shared" si="0"/>
+        <v>9.2551832031460157E-9</v>
       </c>
       <c r="H29" s="5">
-        <f>H28*G29</f>
-        <v>-1.1618236113588734E-16</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>1.3977216847031437E-18</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="G32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>